--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d647786-Reviews-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Rosemead-Los-Angeles.h1639496.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,858 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r548192191-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>647786</t>
+  </si>
+  <si>
+    <t>548192191</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Old hotel in Rosemead CA</t>
+  </si>
+  <si>
+    <t>Location is on the main street of Rosemead, close to Starbuck, mini market, medium size bargain market, a Chinese resto. Staff is not professional, we ask for morning call two days in a row but we don't get any. Lucky I set my own alarm on the second day, but on the first day we just get up 20 minutes before our bus come.....it is a miracle we get on the bus in time ! Limited item and small place for breakfast...just bread, sausage, fried egg &amp; cereal. Bathroom with bathtub....kind of old hotel !</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r538332284-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>538332284</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night as convenient for family, but NEVER AGAIN.  Our room was ok, clean, everything there but that was it. No water in room, Everything else left us wanting, such as no public rest room, no pool or anywhere to sit outside, not a good location, not at all central, no room service or proper restaurant.  For the money they charge we expect a lot more. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r533762847-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>533762847</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and great location </t>
+  </si>
+  <si>
+    <t>Close to all the restaurants and 1 block from the I-10 freeway. Friendly staff and best location. Only thing is sometime I can smell cigarette in non smoking room. Overall good value. I always stay here when I come to the san gabriel area for chinese food !</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r504932395-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>504932395</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Cheap hotel - not worth the price</t>
+  </si>
+  <si>
+    <t>This hotel was a huge disappointment. The room moderately cleaned and the maids had an annoying habit of turning off the A/C when they were done. Our room had the added bonus of being next door to their workout facility and people used it all night. The bed was not comfortable, I felt like I would roll down a cliff towards the middle.The TV never worked,  After two nights we said "enough" and left. The desk clerk was very nice but he could not figure out how to refund our unused nights back to the credit card, so he ended up giving us cash. I applaud his effort, but what a chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This hotel was a huge disappointment. The room moderately cleaned and the maids had an annoying habit of turning off the A/C when they were done. Our room had the added bonus of being next door to their workout facility and people used it all night. The bed was not comfortable, I felt like I would roll down a cliff towards the middle.The TV never worked,  After two nights we said "enough" and left. The desk clerk was very nice but he could not figure out how to refund our unused nights back to the credit card, so he ended up giving us cash. I applaud his effort, but what a chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r503753373-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>503753373</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>I'd give this place 10 stars.  Enjoyable experience</t>
+  </si>
+  <si>
+    <t>I don't know what happened with the fella and the wi-fi problems.  Everything was ultimate EXCEPT the breakfast choices.  I was a little disappointed with the breakfast items.  No toast, or good fruit choices.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r499008899-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>499008899</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Recommend with some things to be aware of</t>
+  </si>
+  <si>
+    <t>This place is not too far from highway and situated in a reasonably quiet area. That means nearby stores and free parking. The rooms are spacious, nice and clean, but there are some issues like less natural light, serious noise when a neighbor's bathroom exhaust is in use, etc. Breakfast area is small, but breakfast itself is good. Great waffles. Most rooms have fridge and microwave.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r420225316-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>420225316</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Nice place- Friendly Staff</t>
+  </si>
+  <si>
+    <t>This place is nice. Clean rooms and friendly staff, yet didn't feel very safe at night. The neighborhood seems nice, but the main doors were never locked or at least it didn't seem like they were. Staff never watching front door after hours. Breakfast was decent. Nothing fancy, but hardly stocked. Hallway rug was very dirty. Wouldn't want to  walk barefoot. Over place isn't bad.May stay there again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r410364553-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>410364553</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great stay at Quality Inn!</t>
+  </si>
+  <si>
+    <t>We weren't quite sure what to expect, but, was glad that we stayed at Quality Inn in Rosemead.  The location is fairly quiet and there was plenty of parking (free of charge).   My fiancee and I stayed in a non-smoking, king bed suite room.  The bathroom is fairly large and the room was well kept.  It was nice having a small refrigerator and microwave.  The air conditioner was fairly quiet and is very efficient.  The people in the front desk were helpful and very polite.  We will definitely stay there again next year!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r408310937-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>408310937</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>The Good: We were greeted with a very friendly and accommodating reception clerk. The room was clean and nice. The King bed was super comfy. Breakfast was alright.The Bad: The sofa bed was horrible. There were no sheets, barely a mattress, so our son chose to sleep on couch instead. The walls were paper thin, so you could hear everything. Overall: If I chose to stay here again, I would choose a top floor to hopefully lessen the noises. I would also make sure that we had actual beds for everyone. Otherwise, the visit was pleasant.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r385679981-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>385679981</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Nice and Clean - No Pool</t>
+  </si>
+  <si>
+    <t>Stayed for two nights - $120 a night. New property and has nice high ceilings. Convenient to freeways if you are driving. Many Chinese on tour stay here so you get some culture too! Four stars for lack of pool and just a decent breakfast. Overall a respectable and safe property.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r384230391-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>384230391</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>still ok</t>
+  </si>
+  <si>
+    <t>Nice staff here. Very friendly manager. Fine rooms. Fine beds. Fine bath. Ok breakfast with waffels and some other hot . Avoid going to the breakfast room, before tourbus turists ( some days) had left or come early.Like it here.Have stayed before.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r378129128-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>378129128</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Good value, Good location</t>
+  </si>
+  <si>
+    <t>I stayed here the night at the rnd of a toad trip around California and dropped family off in nearby El Monte. I booked this due to its location and ease of driving to Vegas the next day. Ample free parking, swift and friendly check in.  I was peovided with a room on 3rd floor facing car park as I preferred to be away from road incase I could hear traffic. Rooms were spacious and clean with good size bathroom. There was a microwave, coffee machine and fridge in the room. Con issue I had was the fridge was quite loud and would make lous humming noise every now and again when it was trying to cool down. Free wifi in hotel. Large beds were comfy but pillows a bit firm for my liking. Continental breakfast was complimentary- it offered a good selection of toast, muffins, fruit, yogurt and pancakes. Overall - good value and location worked for me. Id stay again when visiting family.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I stayed here the night at the rnd of a toad trip around California and dropped family off in nearby El Monte. I booked this due to its location and ease of driving to Vegas the next day. Ample free parking, swift and friendly check in.  I was peovided with a room on 3rd floor facing car park as I preferred to be away from road incase I could hear traffic. Rooms were spacious and clean with good size bathroom. There was a microwave, coffee machine and fridge in the room. Con issue I had was the fridge was quite loud and would make lous humming noise every now and again when it was trying to cool down. Free wifi in hotel. Large beds were comfy but pillows a bit firm for my liking. Continental breakfast was complimentary- it offered a good selection of toast, muffins, fruit, yogurt and pancakes. Overall - good value and location worked for me. Id stay again when visiting family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r353285036-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>353285036</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>We stayed for a night with my hubby before our Las vegas tour,the checkin was fast,the bed was so good with lots of pillows and really smelled fresh and clean and the room was really comfy,it was easy to order food delivered at your hotel room  like pizza and really enjoyed our stay there and will definitely come back with our next holiday!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r348717182-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>348717182</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Not bad...Not all good.</t>
+  </si>
+  <si>
+    <t>The hotel has great parking and the room (I had a room with two double beds) was nice and spacious. There is no pool, so if you're planning a stay with kids or you are big on hotel swimming like myself, I would choose elsewhere to stay. The drain in the tub honestly made me scared to even touch it with my bare hands. Breakfast options were slim and not filling. Overall the hotel was decent but I would not book another stay. Also because of LA traffic it takes about 25-30 mins to get downtown, and 40 mins to get from the airport to the hotel.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r345916734-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>345916734</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Nice Clean Renovated Hotel</t>
+  </si>
+  <si>
+    <t>The stay was great the parking lot was a bit small but other then that the front desk girl was nice and cheerful also the hotel was convinenetly located near restaurants and gas stations. The beds were comfortable and very clean everything look completely new or close to it. Also they served breakfast which I think could use a bit more variety only had waffles and bagels I've stayed at other quality Inn and holiday Inn which includes breakfast that included sausage,eggs, yogurts and fruits also the sitting area was so small but it was average besides that great little hidden hotel</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r335315342-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>335315342</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Christmas stay...decent</t>
+  </si>
+  <si>
+    <t>Booked this hotel a week before the Xmas holiday. My hubs and I decided to get a room and uber to our family functions so we could spend the holiday with both sides. Check in was fast and the front desk receptionist was very nice. We had a nice king size bed room in the first floor. It was right against the street but wasn't too loud. Only flaws about the room was the bathroom sink leaked when the hot water was on. There were rust looking stains around the toilet and bathroom door. Other than that, the room was clean. The walls seamed very thin as we could hear people walking in the morning and turning on the showers or even talking. We would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Booked this hotel a week before the Xmas holiday. My hubs and I decided to get a room and uber to our family functions so we could spend the holiday with both sides. Check in was fast and the front desk receptionist was very nice. We had a nice king size bed room in the first floor. It was right against the street but wasn't too loud. Only flaws about the room was the bathroom sink leaked when the hot water was on. There were rust looking stains around the toilet and bathroom door. Other than that, the room was clean. The walls seamed very thin as we could hear people walking in the morning and turning on the showers or even talking. We would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r320286865-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>320286865</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Very nice.  Completely Updated</t>
+  </si>
+  <si>
+    <t>I stayed here while on a business trip.  I arrived late, and the gentleman at the front desk was very polite and very helpful. I was pleased to see that my room was very spacious and completely updated. The quiet mini fridge was a nice treat as well as my in room coffee and microwave.   My bed was extremely comfortable with lots of fluffy pillows.  The sheets felt expensive.  Very soft yet thick with a high thread count. The towels were plush.  The large updated room and bathroom made me feel as if I were in a high end hotel.  This does not feel like a "budget" property at all.   From the minute I entered my room, I felt pampered.  The housekeeping was immaculate. The entire hotel was extremely clean and welcoming. I couldn't hear any outside noise, or any noise from neighboring rooms to either side or above. This property is well built and quiet. I didn't have an opportunity to endulge in the free breakfast, but is smelled and looked delicious. I recommend this hotel to everyone looking for luxury at a very affordable room rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed here while on a business trip.  I arrived late, and the gentleman at the front desk was very polite and very helpful. I was pleased to see that my room was very spacious and completely updated. The quiet mini fridge was a nice treat as well as my in room coffee and microwave.   My bed was extremely comfortable with lots of fluffy pillows.  The sheets felt expensive.  Very soft yet thick with a high thread count. The towels were plush.  The large updated room and bathroom made me feel as if I were in a high end hotel.  This does not feel like a "budget" property at all.   From the minute I entered my room, I felt pampered.  The housekeeping was immaculate. The entire hotel was extremely clean and welcoming. I couldn't hear any outside noise, or any noise from neighboring rooms to either side or above. This property is well built and quiet. I didn't have an opportunity to endulge in the free breakfast, but is smelled and looked delicious. I recommend this hotel to everyone looking for luxury at a very affordable room rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r281426964-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>281426964</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Ok place</t>
+  </si>
+  <si>
+    <t>Very friendly and helpfull manager and staff at frontdesk. A minor problem with noise from top A/C, was immidiately solved, when guest service showed us a couple other rooms.Wi-fi ok. Nice beds, fine size rooms and restroom. OK breakfast with hot, but be aware of tourbus tourist filling up about 7,30 am. We liked it and will come back. Most quiet to the parking lot side.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r247061509-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>247061509</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>By far some of the best and friendliest staff of any place I have stayed   We had a problem in that the airline lost our  luggage but promised to send to us at this motel. The airline promised a delivery by 1PM but not being sure that in fact that would happen the staff arranged for a very late check out time so that we could wait in our room for our bags if necessary, They staff called me immediately upon their delivery.Just one suggestion, ask for a room on the back side of the motel if possible, they are a bit quieter than those street side.  Rooms are large, very clean and updated.  We plan to stay there again on our next visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>By far some of the best and friendliest staff of any place I have stayed   We had a problem in that the airline lost our  luggage but promised to send to us at this motel. The airline promised a delivery by 1PM but not being sure that in fact that would happen the staff arranged for a very late check out time so that we could wait in our room for our bags if necessary, They staff called me immediately upon their delivery.Just one suggestion, ask for a room on the back side of the motel if possible, they are a bit quieter than those street side.  Rooms are large, very clean and updated.  We plan to stay there again on our next visit to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r242638535-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>242638535</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Close &amp; Clean &amp; Breakfast Too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super comfortable beds! TV has lots of cable channels. Room clean and bathrooms too with amenities. Nice staff! Work out room nice, semi-small but adequate. Wonderfully Close to Temple City &amp; Alhambra. Breakfast included: eggs, waffles, breads, fruit, yogurt, juices, and coffee and teas. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r218972691-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>218972691</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>NO NO NO unless you are on a Chinese tour bus</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is just wrong…the location, the staff, the rooms, the people, the hotel itself.  On the one night I stayed it was full of tourists from Asia that occupied the entire dining area for breakfast.  There is only one computer so if you need to print your boarding pass then good luck.  The rooms are old and unless you are on the top floor you can hear everything.  The room was, however, clean.  I can't say the hotel was terrible but I really wouldn't stay here if I visited the area again and if you are going on vacation, do yourself and your family a favor and find a better place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is just wrong…the location, the staff, the rooms, the people, the hotel itself.  On the one night I stayed it was full of tourists from Asia that occupied the entire dining area for breakfast.  There is only one computer so if you need to print your boarding pass then good luck.  The rooms are old and unless you are on the top floor you can hear everything.  The room was, however, clean.  I can't say the hotel was terrible but I really wouldn't stay here if I visited the area again and if you are going on vacation, do yourself and your family a favor and find a better place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r185014443-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>185014443</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>clean and adequate</t>
+  </si>
+  <si>
+    <t>We stayed here the first weekend in November.  The hotel was clean, staff friendly, room comfortable and had a basic continental breakfast.  It was not in an area that we felt comfortable going for walks but it was very easy to drive to shopping and restaurants.  This hotel is a good reasonably price choice if you needed to stay in the general area. We stayed on the parking lot side on third floor which decreased road noise.  The windows open in the rooms to allow in fresh air.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r184593661-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>184593661</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I stood at this hotel and here are my pro &amp; cons. Pro’s, the hotel is nice, service is good, rooms are very spacious &amp; clean, free breakfast. Con’s, the room I stood in had no blinds or dark curtains to close shut, so the sun is always beaming in, at night you can actually see through the window from the outside so you have no privacy. Trying to get a good night sleep is impossible here, there is always noise going on and the walls are so thin you can here what’s going on in other rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r181425933-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>181425933</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Clean Digs in Rosemead</t>
+  </si>
+  <si>
+    <t>We stayed here recently during an event in Rosemead after browsing the web for some inexpensive last-minute hotels. Overall, we were impressed with the quality of this hotel. Service was friendly and prompt and the rooms were clean and comfortable. I'd highly recommend this to anyone in need of a place to rest your head-- not necessarily a vacation spot for you to relax in, but reliable nonetheless. The added bonus of a mini-fridge and dining options close by were also good. Very close to many popular Chinese restaurants in the area and just off the freeway. My only gripe was that it took more than a couple of days for them to refund my incidentals deposit which was charged to my card because I booked on Expedia. Other than that, a decent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We stayed here recently during an event in Rosemead after browsing the web for some inexpensive last-minute hotels. Overall, we were impressed with the quality of this hotel. Service was friendly and prompt and the rooms were clean and comfortable. I'd highly recommend this to anyone in need of a place to rest your head-- not necessarily a vacation spot for you to relax in, but reliable nonetheless. The added bonus of a mini-fridge and dining options close by were also good. Very close to many popular Chinese restaurants in the area and just off the freeway. My only gripe was that it took more than a couple of days for them to refund my incidentals deposit which was charged to my card because I booked on Expedia. Other than that, a decent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r175578063-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>175578063</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>I liked the hotel, it was nice and clean and friendly staff. My only complaint is that the hotel charges a mandatory (refundable) $150 deposit because it's a non-smoking facility and they want to ensure no one smokes. I think that's a bit much! Other than that, great experience.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r175287356-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>175287356</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Does the job</t>
+  </si>
+  <si>
+    <t>Place was just right for our recent Labor Day Weekend quick trip to LA,CA. Great location for what we were there to do. Came to go the the Rose Bowl, Venice, Dowtown, and Santa Monica. Got a decent price and nice large room. Never got our room cleaned and did not have our "do not disturb" sign on door so not sure what happened. That's my only complaint though. Close to Pasadena and Roscoes chicken and Waffles. Would stay again for sure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r171357559-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>171357559</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Comfort as in their Name</t>
+  </si>
+  <si>
+    <t>Stayed for one night and the room was comfortable, clean and the check in was easy.   They do have a sign about a charge ($100./$150) if you smoke on their room as the hotel is non smoking.The complimentary breakfast was great; small omelets, sausages, cereal, bagels, and two types of coffee.All and all a very nice stay.   By the way 3 blocks away an very good Italian restaurant "Di Pilla's, family owned, good food and hot bread.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r161389257-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>161389257</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Okay for the area</t>
+  </si>
+  <si>
+    <t>Don't be put off from staying at this hotel because of the surrounding area. It was clean, well decorated and the staff was friendly. We were visiting friends in the area and it was close to their homes, so it was a good place for us.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r156510510-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>156510510</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>To bad, good chain, bad location</t>
+  </si>
+  <si>
+    <t>I stay at Comfort Inn &amp; Suites, as well as there sister chains often. I usually find their locations clean and staffed with friendly and helpful people. This one being the exception...This place is dirty and in ill repair! After spending 10 minutes scrubbing the crusty coffee pot in the dark as half of the lightbulbs in the room are burnt out (probably to hide more dirt) the cleaning lady starts pounding on my door at 9am yelling that I am checking out today!! Disappointing experience, I hope this is not what I can expect from this chain hotel in the future</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r154202436-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>154202436</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Stay was enjoyable. Check-in and check out was seamless. Staff was friendly. Rooms appeared to be fairly clean. Breakfast fairly good, similar to other hotels in area. Breakfast area spotless due to attendant (dollar bills under tray indication opportunity to leave tips).  Enjoyed Direct TV in the rooms, but agree that they should be replaced with flat panel TV's. Staff responsive to supplying linens and extras.  Price paid on website reasonable.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r136088096-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>136088096</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Good For Overnight Stay</t>
+  </si>
+  <si>
+    <t>Booked this room for an overnight stay to appear on "Kitchen Nightmares" and "The Price is Right". Check in was seamless. Booked online through Kayak. Lobby was clean. Girl behind the counter was nice and fast. Saw the area where breakfast is served. We checked out before breakfast, but the area looked nice and clean. When we got to the room, it was very clean. Good size for just 2 of us. Very nice looking. The TV was a little annoying in the sense that it only went up so high on the volume. I guess there is a limit set by the hotel in order to keep guests from blaring the TV, but once you turned the AC on, you could barely hear some programs. Room had a sofa in it. That was cool. Micro refrigerator and microwave included. All in all, a very nice room at a very good price. Only took about 20 minutes to get from the hotel to CBS Studios on Beverly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Booked this room for an overnight stay to appear on "Kitchen Nightmares" and "The Price is Right". Check in was seamless. Booked online through Kayak. Lobby was clean. Girl behind the counter was nice and fast. Saw the area where breakfast is served. We checked out before breakfast, but the area looked nice and clean. When we got to the room, it was very clean. Good size for just 2 of us. Very nice looking. The TV was a little annoying in the sense that it only went up so high on the volume. I guess there is a limit set by the hotel in order to keep guests from blaring the TV, but once you turned the AC on, you could barely hear some programs. Room had a sofa in it. That was cool. Micro refrigerator and microwave included. All in all, a very nice room at a very good price. Only took about 20 minutes to get from the hotel to CBS Studios on Beverly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r135290256-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>135290256</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Excellent value 15 minutes from downtown L.A.</t>
+  </si>
+  <si>
+    <t>Building had attractive exterior and basic lobbly. The check in and check out were handled quickly and efficiently. Maid service was excellent and friendly. I found the suite to be surprisingly large, attractive and well furnished for the price paid. It included a large desk, a dining table and a sofa. The bathroom was spacious but lacked sufficient sound proofing. The bedroom soundproofing allowed a small amount of nise but couldn't hear conversation.  The shower flow in my room #318 was above average for 3 to 4 star hotels. Breakfast was nothing special but adequate. With light traffic we were in downtown Los Angeles in 15 minutes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r128867730-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>128867730</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Basically Fine</t>
+  </si>
+  <si>
+    <t>I found it clean. Small suites, microwave, refrigerator, usual amenities.  Lobby sparsely furnished, parking close and easy access. Just like most motels in this price range. If the location is good for you then you will be happy. Better than most on this street. My only negative was they do not have noise reducing walls and ceilings. I could hear a great deal of bed squeaking and walking from the room upstairs.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r105486596-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>105486596</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>No Way this is a 3-star!</t>
+  </si>
+  <si>
+    <t>Booked this hotel thru Travelocity Top Secret Hotels as a supposedly 3-star hotel.  No Way! The bedspread was torn and dirty, walls had marks, bathroom reeked of mold and the tub was absolutely black at the bottom, where you would stand to take a shower. The grout on the bathroom tile floor was filthy. Very poorly maintained, as this is a relatively new hotel. The so-called fitness room had no water, no towels, and no air circulation. When I tried to purchase water from the only vending machine, it was sold out, so the front desk suggested I walk to a nearby liquor store instead of providing water. Was terribly disappointed, as I was expecting a 3-star hotel. I did take photos, but the resolution was not very good, so I won't post them, but would email them by request.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Booked this hotel thru Travelocity Top Secret Hotels as a supposedly 3-star hotel.  No Way! The bedspread was torn and dirty, walls had marks, bathroom reeked of mold and the tub was absolutely black at the bottom, where you would stand to take a shower. The grout on the bathroom tile floor was filthy. Very poorly maintained, as this is a relatively new hotel. The so-called fitness room had no water, no towels, and no air circulation. When I tried to purchase water from the only vending machine, it was sold out, so the front desk suggested I walk to a nearby liquor store instead of providing water. Was terribly disappointed, as I was expecting a 3-star hotel. I did take photos, but the resolution was not very good, so I won't post them, but would email them by request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r100961060-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>100961060</t>
+  </si>
+  <si>
+    <t>03/21/2011</t>
+  </si>
+  <si>
+    <t>Okay...but needs some improvement</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and...We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and has a dark tinge. 4.  On our last morning, the hair dryer started making a terrible noise and smelled like it was on fire.  I immediately shut it off and unplugged it from the wall.  Did notify the front desk to ensure the next guest wouldn't be shocked or injured.  For the most part, the room was okay; but for the price we  paid, everything should be in safe, working order.  This is the first Comfort Suites I've stayed at  that had any problems. (Breakfast was good).MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and...We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and has a dark tinge. 4.  On our last morning, the hair dryer started making a terrible noise and smelled like it was on fire.  I immediately shut it off and unplugged it from the wall.  Did notify the front desk to ensure the next guest wouldn't be shocked or injured.  For the most part, the room was okay; but for the price we  paid, everything should be in safe, working order.  This is the first Comfort Suites I've stayed at  that had any problems. (Breakfast was good).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r91712180-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>91712180</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Small but convenient and affordable</t>
+  </si>
+  <si>
+    <t>This is a small Comfort Suite located just off I-10 in the community of Rosemead, CA.  Very clean and well organized. We had a king room with a small sitting area which included a microwave and frig. Bathroom was large and towels were plentiful. It is located on a somewhat busy street. I would recommend asking for a room away from the highway and on the third floor so you don't have anyone running around over your head. Soundproofing between rooms is non-existant.  We were awoken a number times during the night during our week long stay by rowdy love makers. Carry your own laptop because the PC in the lobby is a joke. Breakfast is good. Nice eating area with attendant and TV. Televisions in the rooms are a joke.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>This is a small Comfort Suite located just off I-10 in the community of Rosemead, CA.  Very clean and well organized. We had a king room with a small sitting area which included a microwave and frig. Bathroom was large and towels were plentiful. It is located on a somewhat busy street. I would recommend asking for a room away from the highway and on the third floor so you don't have anyone running around over your head. Soundproofing between rooms is non-existant.  We were awoken a number times during the night during our week long stay by rowdy love makers. Carry your own laptop because the PC in the lobby is a joke. Breakfast is good. Nice eating area with attendant and TV. Televisions in the rooms are a joke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r64406869-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>64406869</t>
+  </si>
+  <si>
+    <t>05/17/2010</t>
+  </si>
+  <si>
+    <t>Good Value on Newly Renovated Hotel</t>
+  </si>
+  <si>
+    <t>My extended family and I booked this hotel since we were attending a wedding banquet in Rosemead. We found this hotel to be of exceptional value. We booked thru the hotel website directly and used our AAA membership discount to get an additional 10% off.The rooms were clean; with microwave and a fridge. The beds were extremely comfortable, and the rooms were quiet. Note: If you are a light sleeper, make sure you call ahead or request at the front desk to get a room, on the 2nd or 3rd floor facing the back. The traffic noise of the rooms facing the main streets of the hotel may be bothersome to light-sleepers.Breakfast is basic with toasts, pastries, fruit, cereal, and make it yourself waffles. Front staff very helpful and friendly... I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>My extended family and I booked this hotel since we were attending a wedding banquet in Rosemead. We found this hotel to be of exceptional value. We booked thru the hotel website directly and used our AAA membership discount to get an additional 10% off.The rooms were clean; with microwave and a fridge. The beds were extremely comfortable, and the rooms were quiet. Note: If you are a light sleeper, make sure you call ahead or request at the front desk to get a room, on the 2nd or 3rd floor facing the back. The traffic noise of the rooms facing the main streets of the hotel may be bothersome to light-sleepers.Breakfast is basic with toasts, pastries, fruit, cereal, and make it yourself waffles. Front staff very helpful and friendly... I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r60273580-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>60273580</t>
+  </si>
+  <si>
+    <t>04/03/2010</t>
+  </si>
+  <si>
+    <t>OK Accommodation but dreadful breakfast and soiled bed sheets.</t>
+  </si>
+  <si>
+    <t>Quoted $89.99 for  room  including hot breakfast before checking in  but on check out was charged $99.99 .  Luckily there was a spare bed as one had a large brown stain that looked and smelled like dried faeces. Went down at 08:15 to find the breakfast area very small with single waffle  machine, small toaster, three hot dishes containing vile and inedible food.  Juice was unidentifiable and coffee was weak and just as vile.  No butter for toast and waffles just came with thin syrup.  We had to leave just about everything untouched and found a nearby IHOP for a decent breakfast.This is not what I would expect from a Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Quoted $89.99 for  room  including hot breakfast before checking in  but on check out was charged $99.99 .  Luckily there was a spare bed as one had a large brown stain that looked and smelled like dried faeces. Went down at 08:15 to find the breakfast area very small with single waffle  machine, small toaster, three hot dishes containing vile and inedible food.  Juice was unidentifiable and coffee was weak and just as vile.  No butter for toast and waffles just came with thin syrup.  We had to leave just about everything untouched and found a nearby IHOP for a decent breakfast.This is not what I would expect from a Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r46318231-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>46318231</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Restful, quiet sleep - exactly what you need for a hotel room</t>
+  </si>
+  <si>
+    <t>This Comfort Suites property worked out well for the wedding we were in town to attend.  We stayed a total of 4 nights and I slept like a baby each night.  The room was comfortable and the bedding great.  We had arrived super early for the day we needed to check in and called them around 7am to see if we could check in and sleep since we drove the whole night and they were gracious about letting us check in since there was availability and we were NOT charged for the extra time.  
+The parking was never an issue, it was right around the corner from the wedding party's home and the front desk were always professional and courteous.  This is my second stay with them and very happy with my stay.
+The room were were in was a 2 Queen bed suite with Microwave and mini fridge.  I thought it was very sufficient for our stay.  The rooms closed off quiet dark when you need it, however the over all lighting in the room was a bit on the dimmer side.  If you turned up all the lights in the room it wouldn't be by any means too bright in the room.  The sitting area with the coffee table and couch was great for lounging if you didn't want to sit in a chair at the desk or at the 'dining' table or in your bed.
+Checking in...This Comfort Suites property worked out well for the wedding we were in town to attend.  We stayed a total of 4 nights and I slept like a baby each night.  The room was comfortable and the bedding great.  We had arrived super early for the day we needed to check in and called them around 7am to see if we could check in and sleep since we drove the whole night and they were gracious about letting us check in since there was availability and we were NOT charged for the extra time.  The parking was never an issue, it was right around the corner from the wedding party's home and the front desk were always professional and courteous.  This is my second stay with them and very happy with my stay.The room were were in was a 2 Queen bed suite with Microwave and mini fridge.  I thought it was very sufficient for our stay.  The rooms closed off quiet dark when you need it, however the over all lighting in the room was a bit on the dimmer side.  If you turned up all the lights in the room it wouldn't be by any means too bright in the room.  The sitting area with the coffee table and couch was great for lounging if you didn't want to sit in a chair at the desk or at the 'dining' table or in your bed.Checking in and out went without a hitch.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This Comfort Suites property worked out well for the wedding we were in town to attend.  We stayed a total of 4 nights and I slept like a baby each night.  The room was comfortable and the bedding great.  We had arrived super early for the day we needed to check in and called them around 7am to see if we could check in and sleep since we drove the whole night and they were gracious about letting us check in since there was availability and we were NOT charged for the extra time.  
+The parking was never an issue, it was right around the corner from the wedding party's home and the front desk were always professional and courteous.  This is my second stay with them and very happy with my stay.
+The room were were in was a 2 Queen bed suite with Microwave and mini fridge.  I thought it was very sufficient for our stay.  The rooms closed off quiet dark when you need it, however the over all lighting in the room was a bit on the dimmer side.  If you turned up all the lights in the room it wouldn't be by any means too bright in the room.  The sitting area with the coffee table and couch was great for lounging if you didn't want to sit in a chair at the desk or at the 'dining' table or in your bed.
+Checking in...This Comfort Suites property worked out well for the wedding we were in town to attend.  We stayed a total of 4 nights and I slept like a baby each night.  The room was comfortable and the bedding great.  We had arrived super early for the day we needed to check in and called them around 7am to see if we could check in and sleep since we drove the whole night and they were gracious about letting us check in since there was availability and we were NOT charged for the extra time.  The parking was never an issue, it was right around the corner from the wedding party's home and the front desk were always professional and courteous.  This is my second stay with them and very happy with my stay.The room were were in was a 2 Queen bed suite with Microwave and mini fridge.  I thought it was very sufficient for our stay.  The rooms closed off quiet dark when you need it, however the over all lighting in the room was a bit on the dimmer side.  If you turned up all the lights in the room it wouldn't be by any means too bright in the room.  The sitting area with the coffee table and couch was great for lounging if you didn't want to sit in a chair at the desk or at the 'dining' table or in your bed.Checking in and out went without a hitch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r20889467-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>20889467</t>
+  </si>
+  <si>
+    <t>10/14/2008</t>
+  </si>
+  <si>
+    <t>Very nice for the price!</t>
+  </si>
+  <si>
+    <t>The Comfort Suites Rosemead is new, clean and quiet.  The front desk and housekeeping were friendly, professional and helpful.  I paid $90/nite with AAA discount for a king suite and I don't think I can get anything nicer for the price I paid.  Hot buffet breakfast we free...nothing extraordinary but it's free!  My room came with a microwave and fridge, king bed and sofa bed.  The bed was comfortable and the air conditioning unit was great.  I could actually set the temperature I wanted!  (It was 90 degree outside and I was able to keep my room at my comfort level of 65 degrees!)  Location is great if you are interested in asian food.  Hotel is on Valley but outside of the busy sections (east of rosemead blvd.) so it's quiet thruout the day/night.  I felt safe on the property too.  I'd definitely return to this hotel for my next visit and will recommend it to my friends and family!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>The Comfort Suites Rosemead is new, clean and quiet.  The front desk and housekeeping were friendly, professional and helpful.  I paid $90/nite with AAA discount for a king suite and I don't think I can get anything nicer for the price I paid.  Hot buffet breakfast we free...nothing extraordinary but it's free!  My room came with a microwave and fridge, king bed and sofa bed.  The bed was comfortable and the air conditioning unit was great.  I could actually set the temperature I wanted!  (It was 90 degree outside and I was able to keep my room at my comfort level of 65 degrees!)  Location is great if you are interested in asian food.  Hotel is on Valley but outside of the busy sections (east of rosemead blvd.) so it's quiet thruout the day/night.  I felt safe on the property too.  I'd definitely return to this hotel for my next visit and will recommend it to my friends and family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r20393063-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>20393063</t>
+  </si>
+  <si>
+    <t>09/26/2008</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>The above average review I give to the hotel is based on value for money. In some ways it seems a slight mystery why a Comfort Suites would have been built in Rosemead, having now visited the area. It is a good location if the place you're visiting is east of Rosemead, but you're setting yourself up for some pain with the traffic if you are going westbound in the morning and eastbound in the evening.Breakfast is good, rooms are clean and thermostatically controlled. Fridges and microwaves come as standard.I did find that nearby road noise seemed to penetrate the rooms easily (I was on the third floor).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r18521291-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>18521291</t>
+  </si>
+  <si>
+    <t>08/01/2008</t>
+  </si>
+  <si>
+    <t>theif among the staff</t>
+  </si>
+  <si>
+    <t>I have left a few Items in the room after I check out, a few days later I went back to ask about my forgotten items. The staff could not find them. I ask the manager what their policy was in regards to item left behind by customers.   He stated the items will be put in hold for 90 days.  Sound like a reasonable police.. GeeeeeeeeeeeeI went back 2 days later.... MY items where gone.. This happened two times..... I HAVE TO SAY THERE IS THEIFS AMONG THE STAFF. ! !DONT LEAVE ANY VALUEBLES WITHING SIGHT AND MAKE SURE YOU DONT LEAVE ANYTHING IN THE ROOM WHEN YOU CHECK OUTMR. THIEF   IS ON THE PRAWL.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have left a few Items in the room after I check out, a few days later I went back to ask about my forgotten items. The staff could not find them. I ask the manager what their policy was in regards to item left behind by customers.   He stated the items will be put in hold for 90 days.  Sound like a reasonable police.. GeeeeeeeeeeeeI went back 2 days later.... MY items where gone.. This happened two times..... I HAVE TO SAY THERE IS THEIFS AMONG THE STAFF. ! !DONT LEAVE ANY VALUEBLES WITHING SIGHT AND MAKE SURE YOU DONT LEAVE ANYTHING IN THE ROOM WHEN YOU CHECK OUTMR. THIEF   IS ON THE PRAWL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r14039000-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>14039000</t>
+  </si>
+  <si>
+    <t>03/04/2008</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Comfort Suites Rosemead exceeded my expectations during my stay here. The staff overall was amazingly kind and every single one of their staff - always greeted you with a hello and a smile which is very much appreciated. I loved my stay here - everything about this hotel from the lobby, the room, and even the parking lot was neat, clean, and well organized. I felt very safe and comfortable here. Housekeeping was also wonderful - even if you miss the times when housekeeping usually comes by to tidy up, the front desk will give you a call (which I found very courteous of them) and ask if you'd like to have your room cleaned.This hotel and their staff was completely wonderful and I would definitely come back and stay here again. Cleanliness and comfort are two major factors to a stay in a hotel and Comfort Suites Rosemead just exceeded my personal preferences. I loved it here! I appreciate everything this hotel and the staff does to keep it maintained as well as they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Comfort Suites Rosemead exceeded my expectations during my stay here. The staff overall was amazingly kind and every single one of their staff - always greeted you with a hello and a smile which is very much appreciated. I loved my stay here - everything about this hotel from the lobby, the room, and even the parking lot was neat, clean, and well organized. I felt very safe and comfortable here. Housekeeping was also wonderful - even if you miss the times when housekeeping usually comes by to tidy up, the front desk will give you a call (which I found very courteous of them) and ask if you'd like to have your room cleaned.This hotel and their staff was completely wonderful and I would definitely come back and stay here again. Cleanliness and comfort are two major factors to a stay in a hotel and Comfort Suites Rosemead just exceeded my personal preferences. I loved it here! I appreciate everything this hotel and the staff does to keep it maintained as well as they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r10388914-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>10388914</t>
+  </si>
+  <si>
+    <t>10/27/2007</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night while on business travel.  The room was clean, the bed was big and comfy and the hotel was quiet.The hotel does have free Internet service, but it is not wireless.  An ordinary data cable is needed to use it.  I had one in my computer bag, so no problem.  However, the front desk has them for guests to use at no charge.Overall, a really nice place that I will stay at again.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r7992259-Quality_Inn-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>7992259</t>
+  </si>
+  <si>
+    <t>06/25/2007</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>My family stayed here for one night on our cross-country road trip.  The hotel and room looked brand new and were very clean.  Linens were wonderful, bathroom was huge and spotless, towels were plush and plentiful.  Check-in was smooth.  Breakfast was fine - cereal, waffles, fruit.  Egg-like disks were not appetizing, but there were enough other options to fill us up.  Overall a better-than-average hotel stay.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1500,2817 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>184</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>266</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>294</v>
+      </c>
+      <c r="O41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s">
+        <v>305</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54749</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>eljees</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Joan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r538332284-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Jason Allan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r533762847-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>dgestner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r504932395-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>This hotel was a huge disappointment. The room moderately cleaned and the maids had an annoying habit of turning off the A/C when they were done. Our room had the added bonus of being next door to their workout facility and people used it all night. The bed was not comfortable, I felt like I would roll down a cliff towards the middle.The TV never worked,  After two nights we said "enough" and left. The desk clerk was very nice but he could not figure out how to refund our unused nights back to the credit card, so he ended up giving us cash. I applaud his effort, but what a chain.More</t>
   </si>
   <si>
+    <t>Driver_316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r503753373-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>sub580</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r499008899-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>This place is not too far from highway and situated in a reasonably quiet area. That means nearby stores and free parking. The rooms are spacious, nice and clean, but there are some issues like less natural light, serious noise when a neighbor's bathroom exhaust is in use, etc. Breakfast area is small, but breakfast itself is good. Great waffles. Most rooms have fridge and microwave.</t>
   </si>
   <si>
+    <t>lencho_79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r420225316-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>reno_visitor_pp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r410364553-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>We weren't quite sure what to expect, but, was glad that we stayed at Quality Inn in Rosemead.  The location is fairly quiet and there was plenty of parking (free of charge).   My fiancee and I stayed in a non-smoking, king bed suite room.  The bathroom is fairly large and the room was well kept.  It was nice having a small refrigerator and microwave.  The air conditioner was fairly quiet and is very efficient.  The people in the front desk were helpful and very polite.  We will definitely stay there again next year!</t>
   </si>
   <si>
+    <t>Jennifer G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r408310937-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>The Good: We were greeted with a very friendly and accommodating reception clerk. The room was clean and nice. The King bed was super comfy. Breakfast was alright.The Bad: The sofa bed was horrible. There were no sheets, barely a mattress, so our son chose to sleep on couch instead. The walls were paper thin, so you could hear everything. Overall: If I chose to stay here again, I would choose a top floor to hopefully lessen the noises. I would also make sure that we had actual beds for everyone. Otherwise, the visit was pleasant.</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r385679981-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>FlemmingD51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r384230391-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>Nice staff here. Very friendly manager. Fine rooms. Fine beds. Fine bath. Ok breakfast with waffels and some other hot . Avoid going to the breakfast room, before tourbus turists ( some days) had left or come early.Like it here.Have stayed before.</t>
   </si>
   <si>
+    <t>mini1978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r378129128-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>I stayed here the night at the rnd of a toad trip around California and dropped family off in nearby El Monte. I booked this due to its location and ease of driving to Vegas the next day. Ample free parking, swift and friendly check in.  I was peovided with a room on 3rd floor facing car park as I preferred to be away from road incase I could hear traffic. Rooms were spacious and clean with good size bathroom. There was a microwave, coffee machine and fridge in the room. Con issue I had was the fridge was quite loud and would make lous humming noise every now and again when it was trying to cool down. Free wifi in hotel. Large beds were comfy but pillows a bit firm for my liking. Continental breakfast was complimentary- it offered a good selection of toast, muffins, fruit, yogurt and pancakes. Overall - good value and location worked for me. Id stay again when visiting family.More</t>
   </si>
   <si>
+    <t>Julieceeeee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r353285036-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -396,6 +435,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Symone' G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r348717182-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>923arturoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r345916734-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>DreaCrisV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r335315342-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t>Booked this hotel a week before the Xmas holiday. My hubs and I decided to get a room and uber to our family functions so we could spend the holiday with both sides. Check in was fast and the front desk receptionist was very nice. We had a nice king size bed room in the first floor. It was right against the street but wasn't too loud. Only flaws about the room was the bathroom sink leaked when the hot water was on. There were rust looking stains around the toilet and bathroom door. Other than that, the room was clean. The walls seamed very thin as we could hear people walking in the morning and turning on the showers or even talking. We would stay here again. More</t>
   </si>
   <si>
+    <t>Claudine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r320286865-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -492,6 +543,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Tom B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r247061509-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>By far some of the best and friendliest staff of any place I have stayed   We had a problem in that the airline lost our  luggage but promised to send to us at this motel. The airline promised a delivery by 1PM but not being sure that in fact that would happen the staff arranged for a very late check out time so that we could wait in our room for our bags if necessary, They staff called me immediately upon their delivery.Just one suggestion, ask for a room on the back side of the motel if possible, they are a bit quieter than those street side.  Rooms are large, very clean and updated.  We plan to stay there again on our next visit to the area.More</t>
   </si>
   <si>
+    <t>summerpopsicle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r242638535-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -531,6 +588,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>traveltheworldcs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r218972691-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -552,6 +612,9 @@
     <t>Everything about this hotel is just wrong…the location, the staff, the rooms, the people, the hotel itself.  On the one night I stayed it was full of tourists from Asia that occupied the entire dining area for breakfast.  There is only one computer so if you need to print your boarding pass then good luck.  The rooms are old and unless you are on the top floor you can hear everything.  The room was, however, clean.  I can't say the hotel was terrible but I really wouldn't stay here if I visited the area again and if you are going on vacation, do yourself and your family a favor and find a better place.More</t>
   </si>
   <si>
+    <t>sls58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r185014443-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Poots49er</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r184593661-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -588,6 +654,9 @@
     <t>I stood at this hotel and here are my pro &amp; cons. Pro’s, the hotel is nice, service is good, rooms are very spacious &amp; clean, free breakfast. Con’s, the room I stood in had no blinds or dark curtains to close shut, so the sun is always beaming in, at night you can actually see through the window from the outside so you have no privacy. Trying to get a good night sleep is impossible here, there is always noise going on and the walls are so thin you can here what’s going on in other rooms.</t>
   </si>
   <si>
+    <t>MissFranberry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r181425933-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -609,6 +678,9 @@
     <t>We stayed here recently during an event in Rosemead after browsing the web for some inexpensive last-minute hotels. Overall, we were impressed with the quality of this hotel. Service was friendly and prompt and the rooms were clean and comfortable. I'd highly recommend this to anyone in need of a place to rest your head-- not necessarily a vacation spot for you to relax in, but reliable nonetheless. The added bonus of a mini-fridge and dining options close by were also good. Very close to many popular Chinese restaurants in the area and just off the freeway. My only gripe was that it took more than a couple of days for them to refund my incidentals deposit which was charged to my card because I booked on Expedia. Other than that, a decent stay.More</t>
   </si>
   <si>
+    <t>jesscindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r175578063-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>RenoNVUS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r175287356-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -642,6 +717,9 @@
     <t>Place was just right for our recent Labor Day Weekend quick trip to LA,CA. Great location for what we were there to do. Came to go the the Rose Bowl, Venice, Dowtown, and Santa Monica. Got a decent price and nice large room. Never got our room cleaned and did not have our "do not disturb" sign on door so not sure what happened. That's my only complaint though. Close to Pasadena and Roscoes chicken and Waffles. Would stay again for sure.</t>
   </si>
   <si>
+    <t>rafael l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r171357559-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -657,6 +735,9 @@
     <t>Stayed for one night and the room was comfortable, clean and the check in was easy.   They do have a sign about a charge ($100./$150) if you smoke on their room as the hotel is non smoking.The complimentary breakfast was great; small omelets, sausages, cereal, bagels, and two types of coffee.All and all a very nice stay.   By the way 3 blocks away an very good Italian restaurant "Di Pilla's, family owned, good food and hot bread.</t>
   </si>
   <si>
+    <t>Sharon N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r161389257-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -675,6 +756,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Mjhorner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r156510510-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -690,6 +774,9 @@
     <t>I stay at Comfort Inn &amp; Suites, as well as there sister chains often. I usually find their locations clean and staffed with friendly and helpful people. This one being the exception...This place is dirty and in ill repair! After spending 10 minutes scrubbing the crusty coffee pot in the dark as half of the lightbulbs in the room are burnt out (probably to hide more dirt) the cleaning lady starts pounding on my door at 9am yelling that I am checking out today!! Disappointing experience, I hope this is not what I can expect from this chain hotel in the future</t>
   </si>
   <si>
+    <t>5miko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r154202436-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -708,6 +795,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Joe B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r136088096-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -729,6 +819,9 @@
     <t>Booked this room for an overnight stay to appear on "Kitchen Nightmares" and "The Price is Right". Check in was seamless. Booked online through Kayak. Lobby was clean. Girl behind the counter was nice and fast. Saw the area where breakfast is served. We checked out before breakfast, but the area looked nice and clean. When we got to the room, it was very clean. Good size for just 2 of us. Very nice looking. The TV was a little annoying in the sense that it only went up so high on the volume. I guess there is a limit set by the hotel in order to keep guests from blaring the TV, but once you turned the AC on, you could barely hear some programs. Room had a sofa in it. That was cool. Micro refrigerator and microwave included. All in all, a very nice room at a very good price. Only took about 20 minutes to get from the hotel to CBS Studios on Beverly.More</t>
   </si>
   <si>
+    <t>California9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r135290256-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -744,6 +837,9 @@
     <t>Building had attractive exterior and basic lobbly. The check in and check out were handled quickly and efficiently. Maid service was excellent and friendly. I found the suite to be surprisingly large, attractive and well furnished for the price paid. It included a large desk, a dining table and a sofa. The bathroom was spacious but lacked sufficient sound proofing. The bedroom soundproofing allowed a small amount of nise but couldn't hear conversation.  The shower flow in my room #318 was above average for 3 to 4 star hotels. Breakfast was nothing special but adequate. With light traffic we were in downtown Los Angeles in 15 minutes.</t>
   </si>
   <si>
+    <t>Uptowngal12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r128867730-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -762,6 +858,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>GatesBGates</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r105486596-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -783,6 +882,9 @@
     <t>Booked this hotel thru Travelocity Top Secret Hotels as a supposedly 3-star hotel.  No Way! The bedspread was torn and dirty, walls had marks, bathroom reeked of mold and the tub was absolutely black at the bottom, where you would stand to take a shower. The grout on the bathroom tile floor was filthy. Very poorly maintained, as this is a relatively new hotel. The so-called fitness room had no water, no towels, and no air circulation. When I tried to purchase water from the only vending machine, it was sold out, so the front desk suggested I walk to a nearby liquor store instead of providing water. Was terribly disappointed, as I was expecting a 3-star hotel. I did take photos, but the resolution was not very good, so I won't post them, but would email them by request.More</t>
   </si>
   <si>
+    <t>mptibb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r100961060-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -801,6 +903,9 @@
     <t>We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and...We chose this hotel due to the proximity to a family funeral.  The room was large, beds comfy.  However, it is a fact that if you want an uninterrupted night's sleep, request a 3rd floor room at the back of the hotel.  At check in we requested a 3rd floor room at the back, but none were ready at that time (2:30 pm).  The room was clean; with the exception that some broken candy was left on the floor by the TV and the next day after our room was cleaned, the candy had been picked up by the maid we suppose and placed on top of the dresser!!??  Room 123 needs the following four maintenance items  performed:  1. coffee maker does not work properly; when we tried to make coffee, the water reservoir was full of brown dirty water which we had to empty in the sink and clean out best we could, then upon making coffee, the pump didn't pump water from the reservoir to make a full pot of coffee - only about 1/2 cup comes through; - we did notify the front desk, but never received another coffee maker.  2.  The sole plate on the iron is covered with black muck - so don't iron anything with it.  I gingerly had to use it to iron a white shirt.  YIKES!!  3.  The shower floor in the bath tub needs a good scrubbing!!!  It's not clean and has a dark tinge. 4.  On our last morning, the hair dryer started making a terrible noise and smelled like it was on fire.  I immediately shut it off and unplugged it from the wall.  Did notify the front desk to ensure the next guest wouldn't be shocked or injured.  For the most part, the room was okay; but for the price we  paid, everything should be in safe, working order.  This is the first Comfort Suites I've stayed at  that had any problems. (Breakfast was good).More</t>
   </si>
   <si>
+    <t>DukeofTally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r91712180-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -822,6 +927,9 @@
     <t>This is a small Comfort Suite located just off I-10 in the community of Rosemead, CA.  Very clean and well organized. We had a king room with a small sitting area which included a microwave and frig. Bathroom was large and towels were plentiful. It is located on a somewhat busy street. I would recommend asking for a room away from the highway and on the third floor so you don't have anyone running around over your head. Soundproofing between rooms is non-existant.  We were awoken a number times during the night during our week long stay by rowdy love makers. Carry your own laptop because the PC in the lobby is a joke. Breakfast is good. Nice eating area with attendant and TV. Televisions in the rooms are a joke.More</t>
   </si>
   <si>
+    <t>MissKareBear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r64406869-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -843,6 +951,9 @@
     <t>My extended family and I booked this hotel since we were attending a wedding banquet in Rosemead. We found this hotel to be of exceptional value. We booked thru the hotel website directly and used our AAA membership discount to get an additional 10% off.The rooms were clean; with microwave and a fridge. The beds were extremely comfortable, and the rooms were quiet. Note: If you are a light sleeper, make sure you call ahead or request at the front desk to get a room, on the 2nd or 3rd floor facing the back. The traffic noise of the rooms facing the main streets of the hotel may be bothersome to light-sleepers.Breakfast is basic with toasts, pastries, fruit, cereal, and make it yourself waffles. Front staff very helpful and friendly... I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Anthony L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r60273580-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -862,6 +973,9 @@
   </si>
   <si>
     <t>Quoted $89.99 for  room  including hot breakfast before checking in  but on check out was charged $99.99 .  Luckily there was a spare bed as one had a large brown stain that looked and smelled like dried faeces. Went down at 08:15 to find the breakfast area very small with single waffle  machine, small toaster, three hot dishes containing vile and inedible food.  Juice was unidentifiable and coffee was weak and just as vile.  No butter for toast and waffles just came with thin syrup.  We had to leave just about everything untouched and found a nearby IHOP for a decent breakfast.This is not what I would expect from a Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>tanyahh1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r46318231-Quality_Inn-Rosemead_California.html</t>
@@ -891,6 +1005,9 @@
 Checking in...This Comfort Suites property worked out well for the wedding we were in town to attend.  We stayed a total of 4 nights and I slept like a baby each night.  The room was comfortable and the bedding great.  We had arrived super early for the day we needed to check in and called them around 7am to see if we could check in and sleep since we drove the whole night and they were gracious about letting us check in since there was availability and we were NOT charged for the extra time.  The parking was never an issue, it was right around the corner from the wedding party's home and the front desk were always professional and courteous.  This is my second stay with them and very happy with my stay.The room were were in was a 2 Queen bed suite with Microwave and mini fridge.  I thought it was very sufficient for our stay.  The rooms closed off quiet dark when you need it, however the over all lighting in the room was a bit on the dimmer side.  If you turned up all the lights in the room it wouldn't be by any means too bright in the room.  The sitting area with the coffee table and couch was great for lounging if you didn't want to sit in a chair at the desk or at the 'dining' table or in your bed.Checking in and out went without a hitch.More</t>
   </si>
   <si>
+    <t>moo626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r20889467-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -912,6 +1029,9 @@
     <t>The Comfort Suites Rosemead is new, clean and quiet.  The front desk and housekeeping were friendly, professional and helpful.  I paid $90/nite with AAA discount for a king suite and I don't think I can get anything nicer for the price I paid.  Hot buffet breakfast we free...nothing extraordinary but it's free!  My room came with a microwave and fridge, king bed and sofa bed.  The bed was comfortable and the air conditioning unit was great.  I could actually set the temperature I wanted!  (It was 90 degree outside and I was able to keep my room at my comfort level of 65 degrees!)  Location is great if you are interested in asian food.  Hotel is on Valley but outside of the busy sections (east of rosemead blvd.) so it's quiet thruout the day/night.  I felt safe on the property too.  I'd definitely return to this hotel for my next visit and will recommend it to my friends and family!More</t>
   </si>
   <si>
+    <t>Dave-n-Theresa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r20393063-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -927,6 +1047,9 @@
     <t>The above average review I give to the hotel is based on value for money. In some ways it seems a slight mystery why a Comfort Suites would have been built in Rosemead, having now visited the area. It is a good location if the place you're visiting is east of Rosemead, but you're setting yourself up for some pain with the traffic if you are going westbound in the morning and eastbound in the evening.Breakfast is good, rooms are clean and thermostatically controlled. Fridges and microwaves come as standard.I did find that nearby road noise seemed to penetrate the rooms easily (I was on the third floor).</t>
   </si>
   <si>
+    <t>ricanmen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r18521291-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -945,6 +1068,9 @@
     <t>I have left a few Items in the room after I check out, a few days later I went back to ask about my forgotten items. The staff could not find them. I ask the manager what their policy was in regards to item left behind by customers.   He stated the items will be put in hold for 90 days.  Sound like a reasonable police.. GeeeeeeeeeeeeI went back 2 days later.... MY items where gone.. This happened two times..... I HAVE TO SAY THERE IS THEIFS AMONG THE STAFF. ! !DONT LEAVE ANY VALUEBLES WITHING SIGHT AND MAKE SURE YOU DONT LEAVE ANYTHING IN THE ROOM WHEN YOU CHECK OUTMR. THIEF   IS ON THE PRAWL.More</t>
   </si>
   <si>
+    <t>A_MidwestTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r14039000-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -966,6 +1092,9 @@
     <t>Comfort Suites Rosemead exceeded my expectations during my stay here. The staff overall was amazingly kind and every single one of their staff - always greeted you with a hello and a smile which is very much appreciated. I loved my stay here - everything about this hotel from the lobby, the room, and even the parking lot was neat, clean, and well organized. I felt very safe and comfortable here. Housekeeping was also wonderful - even if you miss the times when housekeeping usually comes by to tidy up, the front desk will give you a call (which I found very courteous of them) and ask if you'd like to have your room cleaned.This hotel and their staff was completely wonderful and I would definitely come back and stay here again. Cleanliness and comfort are two major factors to a stay in a hotel and Comfort Suites Rosemead just exceeded my personal preferences. I loved it here! I appreciate everything this hotel and the staff does to keep it maintained as well as they do.More</t>
   </si>
   <si>
+    <t>TrailBlazer_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r10388914-Quality_Inn-Rosemead_California.html</t>
   </si>
   <si>
@@ -982,6 +1111,9 @@
   </si>
   <si>
     <t>October 2007</t>
+  </si>
+  <si>
+    <t>tripppin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d647786-r7992259-Quality_Inn-Rosemead_California.html</t>
@@ -1504,43 +1636,47 @@
       <c r="A2" t="n">
         <v>54749</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1554,50 +1690,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54749</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1611,50 +1751,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54749</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1668,50 +1812,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54749</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1729,50 +1877,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54749</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1790,50 +1942,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54749</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1853,50 +2009,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54749</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1916,41 +2076,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54749</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1969,50 +2133,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54749</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2026,50 +2194,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54749</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2083,50 +2255,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54749</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2146,50 +2322,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54749</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2203,50 +2383,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54749</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2260,50 +2444,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54749</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2323,50 +2511,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54749</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2380,50 +2572,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54749</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2437,50 +2633,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54749</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2494,50 +2694,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54749</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2551,50 +2755,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54749</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2614,50 +2822,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54749</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2671,50 +2883,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54749</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2732,50 +2948,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54749</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2799,50 +3019,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54749</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2866,50 +3090,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54749</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2933,50 +3161,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54749</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3000,50 +3232,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54749</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3067,50 +3303,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54749</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3134,50 +3374,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54749</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3201,41 +3445,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54749</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3264,50 +3512,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54749</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3331,50 +3583,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54749</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3398,50 +3654,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54749</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3465,50 +3725,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54749</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3532,50 +3796,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54749</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3599,41 +3867,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54749</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -3662,50 +3934,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54749</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3729,50 +4005,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54749</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3788,50 +4068,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54749</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3855,50 +4139,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54749</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3922,50 +4210,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54749</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>327</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -3989,41 +4281,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54749</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4050,41 +4346,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54749</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>341</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -4111,50 +4411,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54749</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>348</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="O44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4178,50 +4482,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54749</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4241,50 +4549,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54749</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>363</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="J46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4308,7 +4620,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
